--- a/Cooler_Requirements_Olga_Rymarchuk.xlsx
+++ b/Cooler_Requirements_Olga_Rymarchuk.xlsx
@@ -16,16 +16,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>2) Производительность нагрева воды соостветствует 5.5 л/ч (87-90°C)</t>
+  </si>
+  <si>
+    <t>3) Производительность охлаждение воды соответствует 0.6 л/ч (10-15°C)</t>
+  </si>
+  <si>
+    <t>Удовлетворяют всем критериям</t>
+  </si>
+  <si>
+    <t>Не удовлетворяют всем критериям</t>
+  </si>
+  <si>
+    <t>Требования для кулера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Кулер предназначен для обеспечения подачи холодной и гарячой воды </t>
+  </si>
+  <si>
+    <t>1)Кулер  для воды.</t>
+  </si>
+  <si>
+    <t>3) Давление подачи воды  в кулер 30Па</t>
+  </si>
+  <si>
+    <t>4) Способ наполнения кулера из бутылки. Обьем бутылки должен быть 20,00 л.</t>
+  </si>
+  <si>
+    <t>5) Мощность нагрева зависит от локальной сети поребителя.</t>
+  </si>
+  <si>
+    <t>5) Мощность нагрева составляет 650Вт.</t>
+  </si>
+  <si>
+    <t>2) Производительность нагрева воды соответствует запросу заказчика (клиента)</t>
+  </si>
+  <si>
+    <t>6) Непротекаемость бутля составляет при давлении 20 Па.</t>
+  </si>
+  <si>
+    <t>4) Непротекаемость и целостность бутылки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +72,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +117,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -357,19 +457,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Cooler_Requirements_Olga_Rymarchuk.xlsx
+++ b/Cooler_Requirements_Olga_Rymarchuk.xlsx
@@ -18,46 +18,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>2) Производительность нагрева воды соостветствует 5.5 л/ч (87-90°C)</t>
-  </si>
-  <si>
-    <t>3) Производительность охлаждение воды соответствует 0.6 л/ч (10-15°C)</t>
-  </si>
-  <si>
-    <t>Удовлетворяют всем критериям</t>
-  </si>
-  <si>
-    <t>Не удовлетворяют всем критериям</t>
-  </si>
-  <si>
-    <t>Требования для кулера</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Кулер предназначен для обеспечения подачи холодной и гарячой воды </t>
-  </si>
-  <si>
-    <t>1)Кулер  для воды.</t>
-  </si>
-  <si>
-    <t>3) Давление подачи воды  в кулер 30Па</t>
-  </si>
-  <si>
-    <t>4) Способ наполнения кулера из бутылки. Обьем бутылки должен быть 20,00 л.</t>
-  </si>
-  <si>
-    <t>5) Мощность нагрева зависит от локальной сети поребителя.</t>
-  </si>
-  <si>
-    <t>5) Мощность нагрева составляет 650Вт.</t>
-  </si>
-  <si>
-    <t>2) Производительность нагрева воды соответствует запросу заказчика (клиента)</t>
-  </si>
-  <si>
-    <t>6) Непротекаемость бутля составляет при давлении 20 Па.</t>
-  </si>
-  <si>
-    <t>4) Непротекаемость и целостность бутылки</t>
+    <t>Requirements for the cooler</t>
+  </si>
+  <si>
+    <t>Satisfy all criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT Satisfy all criteria</t>
+  </si>
+  <si>
+    <t>1) The cooler is designed to provide cold and hot water.</t>
+  </si>
+  <si>
+    <t>2) Water heating capacity is 5.5 l / h (87-90 ° C)</t>
+  </si>
+  <si>
+    <t>3) Water cooling capacity corresponds to 0.6 l / h (10-15 ° C)</t>
+  </si>
+  <si>
+    <t>4) The method of filling the cooler from the bottle. The volume of the bottle should be 20.00 l.</t>
+  </si>
+  <si>
+    <t>5) Heating power is 650W.</t>
+  </si>
+  <si>
+    <t>6) Impermeability of the bottle is at a pressure of 20 Pa.</t>
+  </si>
+  <si>
+    <t>1) Water cooler.</t>
+  </si>
+  <si>
+    <t>2) Water heating capacity corresponds to the request of the customer (client)</t>
+  </si>
+  <si>
+    <t>3) Water supply pressure to the cooler is 30Pa</t>
+  </si>
+  <si>
+    <t>4) Impermeability and bottle integrity</t>
+  </si>
+  <si>
+    <t>5) The heating power depends on the customer's local network.</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,6 +121,32 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -141,12 +167,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -155,6 +175,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,74 +486,74 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1"/>
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>

--- a/Cooler_Requirements_Olga_Rymarchuk.xlsx
+++ b/Cooler_Requirements_Olga_Rymarchuk.xlsx
@@ -11,60 +11,109 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Requirements for the cooler</t>
-  </si>
-  <si>
-    <t>Satisfy all criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOT Satisfy all criteria</t>
-  </si>
-  <si>
-    <t>1) The cooler is designed to provide cold and hot water.</t>
-  </si>
-  <si>
-    <t>2) Water heating capacity is 5.5 l / h (87-90 ° C)</t>
-  </si>
-  <si>
-    <t>3) Water cooling capacity corresponds to 0.6 l / h (10-15 ° C)</t>
-  </si>
-  <si>
-    <t>4) The method of filling the cooler from the bottle. The volume of the bottle should be 20.00 l.</t>
-  </si>
-  <si>
-    <t>5) Heating power is 650W.</t>
-  </si>
-  <si>
-    <t>6) Impermeability of the bottle is at a pressure of 20 Pa.</t>
-  </si>
-  <si>
-    <t>1) Water cooler.</t>
-  </si>
-  <si>
-    <t>2) Water heating capacity corresponds to the request of the customer (client)</t>
-  </si>
-  <si>
-    <t>3) Water supply pressure to the cooler is 30Pa</t>
-  </si>
-  <si>
-    <t>4) Impermeability and bottle integrity</t>
-  </si>
-  <si>
-    <t>5) The heating power depends on the customer's local network.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+  <si>
+    <t>Requiremets</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Measurability</t>
+  </si>
+  <si>
+    <t>Testability</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>1) The cooler is designed to supply chilled and hot water. Productivity - up to 5.5 l / hour (87-90 ° С). Water cooling capacity 0.6 l / h (10-15 ° С).</t>
+  </si>
+  <si>
+    <t>ок</t>
+  </si>
+  <si>
+    <t>2) The cooler should be outdoor. The body is white. Size of the cooler w * w * g (mm): 310 * 990 * 345. Weight (net): 17.50 kg
+Weight (gross): 19.40 kg.</t>
+  </si>
+  <si>
+    <t>3) The method of filling the cooler with bottled water. Compatibility with bottles: Polycarbonate 8l-19l, Polyethylene 11l-19l, Glass 5l-19.5l.</t>
+  </si>
+  <si>
+    <t>1) The volume of the water tank is not collapsible</t>
+  </si>
+  <si>
+    <t>/ (What is the volume of the tank?)</t>
+  </si>
+  <si>
+    <t>/ (it is not clear which tank for cold or hot water)</t>
+  </si>
+  <si>
+    <t>2) The size of the refrigerator (in the cooler) should not be larger than the size of the case.</t>
+  </si>
+  <si>
+    <t>/ (dimensions of the refrigerator and the body are not listed)</t>
+  </si>
+  <si>
+    <t>/ ("no more than" incomprehensible measurability)</t>
+  </si>
+  <si>
+    <t>/ (it will not be possible to test, since the dimensions are not indicated: of the refrigerator and the body)</t>
+  </si>
+  <si>
+    <t>3) The power consumption should not exceed more than the power consumption of the electric kettle. Energy consumption of the kettle from 1 kW / hour.</t>
+  </si>
+  <si>
+    <t>/ (it is unclear what is the minimum maximum cooler power consumption)</t>
+  </si>
+  <si>
+    <t>/ (there is no clear measurable energy consumption cooler)</t>
+  </si>
+  <si>
+    <t>4) Portability cooler - physically by one person. The weight of the cooler is 60 kg</t>
+  </si>
+  <si>
+    <t>/ (average person can not carry an object with such weight)</t>
+  </si>
+  <si>
+    <t>5) Maximum water heating capacity for a compressor cooler.</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/ (exact measurability of power is not indicated. "Maximum" is a relative concept)</t>
+  </si>
+  <si>
+    <t>6) Small size cooler for personal use.</t>
+  </si>
+  <si>
+    <t>/ (need to specify what the cooler is for, for example a cooler to a PC)</t>
+  </si>
+  <si>
+    <t>/ (how to test, what is more specific? It is not clear how to make a test case based on this requirement)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,17 +125,10 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -98,18 +140,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -158,11 +200,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -170,18 +249,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,107 +588,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" customWidth="1"/>
-    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="F7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="G7" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
@@ -631,41 +936,12 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
